--- a/data/trans_orig/P42-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P42-Estudios-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>978538</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>946932</v>
+        <v>945844</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1007789</v>
+        <v>1007067</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7498078685220988</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7255894410451094</v>
+        <v>0.724756136240662</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7722214261350938</v>
+        <v>0.7716679929368047</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>326514</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>297263</v>
+        <v>297985</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>358120</v>
+        <v>359208</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2501921314779013</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2277785738649062</v>
+        <v>0.2283320070631953</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2744105589548907</v>
+        <v>0.275243863759338</v>
       </c>
     </row>
     <row r="6">
@@ -715,19 +715,19 @@
         <v>1265618</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1232413</v>
+        <v>1234320</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1298533</v>
+        <v>1295274</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7991009932246873</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7781356224608449</v>
+        <v>0.7793396982156817</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8198833336617386</v>
+        <v>0.8178254784115898</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +744,19 @@
         <v>318184</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>285269</v>
+        <v>288528</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>351389</v>
+        <v>349482</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2008990067753127</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1801166663382615</v>
+        <v>0.1821745215884102</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2218643775391552</v>
+        <v>0.2206603017843192</v>
       </c>
     </row>
     <row r="9">
@@ -806,19 +806,19 @@
         <v>417199</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>399664</v>
+        <v>401774</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>429308</v>
+        <v>429985</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8778635007215507</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8409666971776667</v>
+        <v>0.8454049725797508</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9033432607794586</v>
+        <v>0.9047659902240175</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>58045</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>45936</v>
+        <v>45259</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>75580</v>
+        <v>73470</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1221364992784492</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09665673922054142</v>
+        <v>0.09523400977598254</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1590333028223334</v>
+        <v>0.1545950274202492</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>2661356</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2612741</v>
+        <v>2611541</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2705696</v>
+        <v>2706598</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7911051909492635</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7766540691656978</v>
+        <v>0.776297344558097</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8042855927408341</v>
+        <v>0.8045536655509333</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>702743</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>658403</v>
+        <v>657501</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>751358</v>
+        <v>752558</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2088948090507366</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1957144072591661</v>
+        <v>0.1954463344490666</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2233459308343023</v>
+        <v>0.223702655441903</v>
       </c>
     </row>
     <row r="15">
@@ -1105,19 +1105,19 @@
         <v>1136152</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1108030</v>
+        <v>1109395</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1162381</v>
+        <v>1162931</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8518445160511835</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8307599039629318</v>
+        <v>0.8317834298233593</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8715102414958243</v>
+        <v>0.8719221582109374</v>
       </c>
     </row>
     <row r="5">
@@ -1134,19 +1134,19 @@
         <v>197603</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>171374</v>
+        <v>170824</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>225725</v>
+        <v>224360</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1481554839488164</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1284897585041756</v>
+        <v>0.1280778417890625</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1692400960370682</v>
+        <v>0.1682165701766408</v>
       </c>
     </row>
     <row r="6">
@@ -1196,19 +1196,19 @@
         <v>1522734</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1491579</v>
+        <v>1494145</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1549662</v>
+        <v>1549123</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8742276640096868</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8563410811264938</v>
+        <v>0.8578141916452592</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8896876856374641</v>
+        <v>0.8893781920695644</v>
       </c>
     </row>
     <row r="8">
@@ -1225,19 +1225,19 @@
         <v>219071</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>192143</v>
+        <v>192682</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>250226</v>
+        <v>247660</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1257723359903133</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1103123143625368</v>
+        <v>0.1106218079304359</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1436589188735063</v>
+        <v>0.1421858083547409</v>
       </c>
     </row>
     <row r="9">
@@ -1287,19 +1287,19 @@
         <v>421344</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>406215</v>
+        <v>408096</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>431915</v>
+        <v>431521</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9208606830591703</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8877950088829472</v>
+        <v>0.8919065104983329</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9439638036685801</v>
+        <v>0.9431024428800929</v>
       </c>
     </row>
     <row r="11">
@@ -1316,19 +1316,19 @@
         <v>36211</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>25640</v>
+        <v>26034</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>51340</v>
+        <v>49459</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07913931694082967</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05603619633141985</v>
+        <v>0.0568975571199071</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1122049911170538</v>
+        <v>0.1080934895016672</v>
       </c>
     </row>
     <row r="12">
@@ -1378,19 +1378,19 @@
         <v>3080230</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3040838</v>
+        <v>3038386</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3123222</v>
+        <v>3119784</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8718171877437919</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8606678981828886</v>
+        <v>0.859973869496746</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8839857611704416</v>
+        <v>0.8830124244316774</v>
       </c>
     </row>
     <row r="14">
@@ -1407,19 +1407,19 @@
         <v>452884</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>409892</v>
+        <v>413330</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>492276</v>
+        <v>494728</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1281828122562081</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1160142388295584</v>
+        <v>0.1169875755683227</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1393321018171121</v>
+        <v>0.1400261305032546</v>
       </c>
     </row>
     <row r="15">
@@ -1586,19 +1586,19 @@
         <v>826185</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>801478</v>
+        <v>800687</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>847361</v>
+        <v>850789</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8397765279812761</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8146635659035053</v>
+        <v>0.813859025756162</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8613007051619503</v>
+        <v>0.8647856574094605</v>
       </c>
     </row>
     <row r="5">
@@ -1615,19 +1615,19 @@
         <v>157630</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>136454</v>
+        <v>133026</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>182337</v>
+        <v>183128</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1602234720187239</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1386992948380495</v>
+        <v>0.1352143425905395</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1853364340964946</v>
+        <v>0.1861409742438379</v>
       </c>
     </row>
     <row r="6">
@@ -1677,19 +1677,19 @@
         <v>1724120</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1696289</v>
+        <v>1692395</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1751726</v>
+        <v>1750774</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8728067995573505</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8587177538885625</v>
+        <v>0.8567464035260259</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.886781704188463</v>
+        <v>0.8863001633129147</v>
       </c>
     </row>
     <row r="8">
@@ -1706,19 +1706,19 @@
         <v>251254</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>223648</v>
+        <v>224600</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>279085</v>
+        <v>282979</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1271932004426495</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.113218295811537</v>
+        <v>0.1136998366870852</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1412822461114376</v>
+        <v>0.1432535964739741</v>
       </c>
     </row>
     <row r="9">
@@ -1768,19 +1768,19 @@
         <v>505882</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>491687</v>
+        <v>494028</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>517059</v>
+        <v>518620</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9256038673196538</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8996310718350721</v>
+        <v>0.9039133274262433</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9460540845476373</v>
+        <v>0.9489106475514071</v>
       </c>
     </row>
     <row r="11">
@@ -1797,19 +1797,19 @@
         <v>40661</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>29484</v>
+        <v>27923</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>54856</v>
+        <v>52515</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07439613268034616</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05394591545236262</v>
+        <v>0.05108935244859299</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1003689281649277</v>
+        <v>0.0960866725737568</v>
       </c>
     </row>
     <row r="12">
@@ -1859,19 +1859,19 @@
         <v>3056188</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3016412</v>
+        <v>3014592</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3095421</v>
+        <v>3094482</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8717685574290215</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8604227331318608</v>
+        <v>0.8599036027914344</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8829597580345639</v>
+        <v>0.8826919631515711</v>
       </c>
     </row>
     <row r="14">
@@ -1888,19 +1888,19 @@
         <v>449545</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>410312</v>
+        <v>411251</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>489321</v>
+        <v>491141</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1282314425709785</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1170402419654362</v>
+        <v>0.1173080368484289</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1395772668681394</v>
+        <v>0.140096397208565</v>
       </c>
     </row>
     <row r="15">
@@ -2067,19 +2067,19 @@
         <v>563565</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>548464</v>
+        <v>546452</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>577342</v>
+        <v>576511</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.84562944104988</v>
+        <v>0.8456294410498797</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8229706051639109</v>
+        <v>0.8199523165478059</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8663021527282987</v>
+        <v>0.8650555764481256</v>
       </c>
     </row>
     <row r="5">
@@ -2096,19 +2096,19 @@
         <v>102879</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>89102</v>
+        <v>89933</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>117980</v>
+        <v>119992</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.15437055895012</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1336978472717012</v>
+        <v>0.1349444235518745</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1770293948360893</v>
+        <v>0.1800476834521941</v>
       </c>
     </row>
     <row r="6">
@@ -2158,19 +2158,19 @@
         <v>1318909</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1284536</v>
+        <v>1282280</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1353824</v>
+        <v>1354260</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.8149989499833782</v>
+        <v>0.8149989499833783</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7937589359783627</v>
+        <v>0.7923645650021841</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8365742002114532</v>
+        <v>0.8368437854838621</v>
       </c>
     </row>
     <row r="8">
@@ -2187,19 +2187,19 @@
         <v>299386</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>264471</v>
+        <v>264035</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>333759</v>
+        <v>336015</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1850010500166217</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1634257997885467</v>
+        <v>0.1631562145161378</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2062410640216371</v>
+        <v>0.2076354349978159</v>
       </c>
     </row>
     <row r="9">
@@ -2249,19 +2249,19 @@
         <v>456686</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>442396</v>
+        <v>440685</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>469451</v>
+        <v>469365</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8947251727581644</v>
+        <v>0.8947251727581643</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.866729949985851</v>
+        <v>0.8633768861209314</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9197349201338623</v>
+        <v>0.9195666089418705</v>
       </c>
     </row>
     <row r="11">
@@ -2278,19 +2278,19 @@
         <v>53734</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>40969</v>
+        <v>41055</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>68024</v>
+        <v>69735</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1052748272418357</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08026507986613778</v>
+        <v>0.08043339105812965</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.133270050014149</v>
+        <v>0.1366231138790684</v>
       </c>
     </row>
     <row r="12">
@@ -2340,19 +2340,19 @@
         <v>2339159</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2297541</v>
+        <v>2294792</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2377923</v>
+        <v>2379313</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8368608043715948</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8219715992919024</v>
+        <v>0.8209880441848736</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8507292347529751</v>
+        <v>0.851226198454249</v>
       </c>
     </row>
     <row r="14">
@@ -2369,19 +2369,19 @@
         <v>456000</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>417236</v>
+        <v>415846</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>497618</v>
+        <v>500367</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1631391956284051</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1492707652470252</v>
+        <v>0.148773801545751</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1780284007080977</v>
+        <v>0.1790119558151264</v>
       </c>
     </row>
     <row r="15">
